--- a/JSUPG/SUPG_experiments/CSUPGBOX.xlsx
+++ b/JSUPG/SUPG_experiments/CSUPGBOX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\University\Unversity2022\Thesis\Hexapod Code\Hexapod---SUPG\JSUPG\SUPG_experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C653CBB-EF16-4431-8A8F-28619D327E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E7026B-EABC-4FCC-BEFF-AAF522561116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,16 +18,6 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$K$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$K$2:$K$121</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$K$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$K$2:$K$121</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$L$2:$L$121</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$M$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$M$2:$M$121</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$N$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$N$2:$N$121</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$O$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$O$2:$O$121</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$L$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$L$2:$L$121</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$M$1</definedName>
@@ -1209,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O121"/>
+  <dimension ref="A1:O123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4431,6 +4421,10 @@
       <c r="F102">
         <v>0.53544610114098212</v>
       </c>
+      <c r="I102">
+        <f>101/6</f>
+        <v>16.833333333333332</v>
+      </c>
       <c r="L102">
         <f t="shared" si="11"/>
         <v>3.5207970472558733E-2</v>
@@ -4457,6 +4451,10 @@
       <c r="F103">
         <v>1.8763976601590859</v>
       </c>
+      <c r="I103">
+        <f>16*6</f>
+        <v>96</v>
+      </c>
       <c r="L103">
         <f t="shared" si="11"/>
         <v>6.6237573738928274E-2</v>
@@ -4936,6 +4934,24 @@
       <c r="O121">
         <f t="shared" si="13"/>
         <v>0.13216539422768595</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C123">
+        <f>MAX(C2:C121)</f>
+        <v>3.7033387613479611</v>
+      </c>
+      <c r="D123">
+        <f t="shared" ref="D123:F123" si="14">MAX(D2:D121)</f>
+        <v>2.4853360983105741</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="14"/>
+        <v>2.3342614632962739</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="14"/>
+        <v>1.8763976601590859</v>
       </c>
     </row>
   </sheetData>
